--- a/sheet/sheets_plots.xlsx
+++ b/sheet/sheets_plots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Documents\Projetos_data_science\Analysis-grades-brazil-national-exam\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF09A9EB-202D-43FF-BF90-8DEDF4E2DBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542F4AFC-4B71-4F51-A349-0CF7283900B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{80EFC06E-9C6E-42A1-94B0-90E16E54DB37}"/>
   </bookViews>
@@ -8390,7 +8390,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>All_years!$J$2</c15:sqref>
@@ -8416,7 +8416,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>All_years!$E$3:$E$14</c15:sqref>
@@ -8467,7 +8467,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>All_years!$J$3:$J$14</c15:sqref>
@@ -8481,7 +8481,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-8717-4AAA-89EF-30668493F72E}"/>
                   </c:ext>
@@ -8494,7 +8494,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>All_years!$M$2</c15:sqref>
@@ -8522,7 +8522,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>All_years!$E$3:$E$14</c15:sqref>
@@ -8573,7 +8573,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>All_years!$M$3:$M$14</c15:sqref>
@@ -8587,7 +8587,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-8717-4AAA-89EF-30668493F72E}"/>
                   </c:ext>
@@ -43329,8 +43329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281CD64E-2B3C-44A0-988F-6A42929256DD}">
   <dimension ref="B2:W108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B123" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G122" sqref="G122"/>
+    <sheetView tabSelected="1" topLeftCell="F27" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -44997,6 +44997,10 @@
         <f xml:space="preserve"> '2016'!$J$20</f>
         <v>606.75</v>
       </c>
+      <c r="P40">
+        <f xml:space="preserve"> SUM(Tabela13[Medicine ap])</f>
+        <v>39839</v>
+      </c>
       <c r="R40" s="15">
         <v>2017</v>
       </c>
@@ -45082,6 +45086,10 @@
       <c r="N42" s="12" t="str">
         <f xml:space="preserve"> '2018'!$J$20</f>
         <v>-</v>
+      </c>
+      <c r="P42">
+        <f xml:space="preserve"> J33*100/P40</f>
+        <v>2.7159316247897789</v>
       </c>
       <c r="R42" s="15">
         <v>2019</v>

--- a/sheet/sheets_plots.xlsx
+++ b/sheet/sheets_plots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Documents\Projetos_data_science\Analysis-grades-brazil-national-exam\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542F4AFC-4B71-4F51-A349-0CF7283900B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F3963F-94E5-47B4-A78F-5F1CE286D17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{80EFC06E-9C6E-42A1-94B0-90E16E54DB37}"/>
   </bookViews>
@@ -620,7 +620,32 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="101">
+  <dxfs count="103">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -22008,13 +22033,13 @@
                   <c:v>483.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>527.64</c:v>
+                  <c:v>533.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>509.74</c:v>
+                  <c:v>510.31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>506.85</c:v>
+                  <c:v>504.07</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -42838,95 +42863,95 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{883B7D80-BFA1-4A0B-91FA-43CE80C8C5FD}" name="Tabela1" displayName="Tabela1" ref="B2:C14" totalsRowShown="0" headerRowDxfId="100" headerRowBorderDxfId="99" tableBorderDxfId="98" totalsRowBorderDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{883B7D80-BFA1-4A0B-91FA-43CE80C8C5FD}" name="Tabela1" displayName="Tabela1" ref="B2:C14" totalsRowShown="0" headerRowDxfId="102" headerRowBorderDxfId="101" tableBorderDxfId="100" totalsRowBorderDxfId="99">
   <autoFilter ref="B2:C14" xr:uid="{883B7D80-BFA1-4A0B-91FA-43CE80C8C5FD}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3EFF7D68-B2EC-46C5-A7D3-C351A264DA55}" name="Year" dataDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{0BF808E1-7143-423A-B56D-B1889A7DD5B9}" name="Avg Total Score" dataDxfId="95"/>
+    <tableColumn id="1" xr3:uid="{3EFF7D68-B2EC-46C5-A7D3-C351A264DA55}" name="Year" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{0BF808E1-7143-423A-B56D-B1889A7DD5B9}" name="Avg Total Score" dataDxfId="97"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{CA5D1C94-E45E-449F-8B79-A6E1C726CBA8}" name="Tabela10" displayName="Tabela10" ref="D33:H45" totalsRowShown="0" headerRowBorderDxfId="41" tableBorderDxfId="40" totalsRowBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{CA5D1C94-E45E-449F-8B79-A6E1C726CBA8}" name="Tabela10" displayName="Tabela10" ref="D33:H45" totalsRowShown="0" headerRowBorderDxfId="43" tableBorderDxfId="42" totalsRowBorderDxfId="41">
   <autoFilter ref="D33:H45" xr:uid="{CA5D1C94-E45E-449F-8B79-A6E1C726CBA8}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{ACB9D755-65C0-440D-AEE8-A58AD298B732}" name="Year" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{58CD1AEC-ABAD-4898-9735-C7CB4B37FF1B}" name="Avg Total Score" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{B3747E1B-4F39-42F9-960A-96430C0FDB1C}" name="Avg RED" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{DF0C2876-38DC-43EF-91EF-2F215500A89C}" name="Good knowledge Pt *" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{25A7D035-3B9F-45A0-BB6B-BFBFD20D03C9}" name="(%)" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{ACB9D755-65C0-440D-AEE8-A58AD298B732}" name="Year" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{58CD1AEC-ABAD-4898-9735-C7CB4B37FF1B}" name="Avg Total Score" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{B3747E1B-4F39-42F9-960A-96430C0FDB1C}" name="Avg RED" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{DF0C2876-38DC-43EF-91EF-2F215500A89C}" name="Good knowledge Pt *" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{25A7D035-3B9F-45A0-BB6B-BFBFD20D03C9}" name="(%)" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{67D06ECF-9B42-44B5-B30D-66578B32E61F}" name="Tabela11" displayName="Tabela11" ref="L33:N45" totalsRowShown="0" headerRowBorderDxfId="33" tableBorderDxfId="32" totalsRowBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{67D06ECF-9B42-44B5-B30D-66578B32E61F}" name="Tabela11" displayName="Tabela11" ref="L33:N45" totalsRowShown="0" headerRowBorderDxfId="35" tableBorderDxfId="34" totalsRowBorderDxfId="33">
   <autoFilter ref="L33:N45" xr:uid="{67D06ECF-9B42-44B5-B30D-66578B32E61F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{919C29A4-CBCC-4153-A23A-594944A44414}" name="Year" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{78D48029-89CF-4E58-9C44-2119013EFE42}" name="M" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{787BFAB0-4D74-4A73-9A4D-B2A7AF434426}" name="F" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{919C29A4-CBCC-4153-A23A-594944A44414}" name="Year" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{78D48029-89CF-4E58-9C44-2119013EFE42}" name="M" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{787BFAB0-4D74-4A73-9A4D-B2A7AF434426}" name="F" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{50BD03AB-19CE-47A8-850E-B43FA08A1BAA}" name="Tabela13" displayName="Tabela13" ref="R32:T44" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{50BD03AB-19CE-47A8-850E-B43FA08A1BAA}" name="Tabela13" displayName="Tabela13" ref="R32:T44" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <autoFilter ref="R32:T44" xr:uid="{50BD03AB-19CE-47A8-850E-B43FA08A1BAA}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4340A481-7762-418C-8D2B-62880C369CF6}" name="Year" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{3D956505-4D83-4A46-BC59-B8CA6549EB3B}" name="Medicine ap" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{AE578355-150C-4A44-A79A-96355F13ECA3}" name="(%)" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{4340A481-7762-418C-8D2B-62880C369CF6}" name="Year" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{3D956505-4D83-4A46-BC59-B8CA6549EB3B}" name="Medicine ap" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{AE578355-150C-4A44-A79A-96355F13ECA3}" name="(%)" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{73C65721-7881-43D3-B37E-DA115B671899}" name="Tabela14" displayName="Tabela14" ref="L48:N60" totalsRowShown="0" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{73C65721-7881-43D3-B37E-DA115B671899}" name="Tabela14" displayName="Tabela14" ref="L48:N60" totalsRowShown="0" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
   <autoFilter ref="L48:N60" xr:uid="{73C65721-7881-43D3-B37E-DA115B671899}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{51C1DCC9-C2FE-47FA-9E0B-C715A823C337}" name="Year" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{47C826D0-A392-404B-9060-95897C13FF1C}" name="M" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{0E02DDD4-29F3-40D8-843D-15D612FB211B}" name="F" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{51C1DCC9-C2FE-47FA-9E0B-C715A823C337}" name="Year" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{47C826D0-A392-404B-9060-95897C13FF1C}" name="M" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{0E02DDD4-29F3-40D8-843D-15D612FB211B}" name="F" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{F3FC4230-8FBB-48A2-9B35-4C3C35D40F02}" name="Tabela15" displayName="Tabela15" ref="R46:T58" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{F3FC4230-8FBB-48A2-9B35-4C3C35D40F02}" name="Tabela15" displayName="Tabela15" ref="R46:T58" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="R46:T58" xr:uid="{F3FC4230-8FBB-48A2-9B35-4C3C35D40F02}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5F4BEEE8-3B48-4D4A-A551-0889BA42A473}" name="Year" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{AF8BE881-AE8C-4FED-BA4C-DD14D204EF8C}" name="Lowest ap" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{E9C67CB0-2651-4FF4-BAC4-F44AC275D0A2}" name="(%)" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{5F4BEEE8-3B48-4D4A-A551-0889BA42A473}" name="Year" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{AF8BE881-AE8C-4FED-BA4C-DD14D204EF8C}" name="Lowest ap" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{E9C67CB0-2651-4FF4-BAC4-F44AC275D0A2}" name="(%)" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{DB2A6010-8407-482E-8E0F-A6EEB2C125D3}" name="Tabela16" displayName="Tabela16" ref="F51:G63" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{DB2A6010-8407-482E-8E0F-A6EEB2C125D3}" name="Tabela16" displayName="Tabela16" ref="F51:G63" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="F51:G63" xr:uid="{DB2A6010-8407-482E-8E0F-A6EEB2C125D3}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{379F8A56-1D31-499B-9A81-CEE17C828A79}" name="Year" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{A31AEBD7-4611-4AD5-9586-0D459F1C0638}" name="Number candidates" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{379F8A56-1D31-499B-9A81-CEE17C828A79}" name="Year" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{A31AEBD7-4611-4AD5-9586-0D459F1C0638}" name="Number candidates" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{B73F1E40-045E-431C-93D6-AD227C290A65}" name="Tabela20" displayName="Tabela20" ref="R63:S65" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{B73F1E40-045E-431C-93D6-AD227C290A65}" name="Tabela20" displayName="Tabela20" ref="R63:S65" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="R63:S65" xr:uid="{B73F1E40-045E-431C-93D6-AD227C290A65}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{CDCF540E-DBED-43A2-BFB9-67AA28DCE6B1}" name="Query"/>
-    <tableColumn id="2" xr3:uid="{B70A32DC-89CE-4684-99E5-89EBE33987CE}" name="Quantidade alunos" dataDxfId="0" dataCellStyle="Porcentagem">
+    <tableColumn id="2" xr3:uid="{B70A32DC-89CE-4684-99E5-89EBE33987CE}" name="Quantidade alunos" dataDxfId="2" dataCellStyle="Porcentagem">
       <calculatedColumnFormula xml:space="preserve"> 1 - S63</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -42935,96 +42960,96 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A5620E53-AB9B-4A34-B1EA-F30E2D8A71A6}" name="Tabela2" displayName="Tabela2" ref="E2:F14" totalsRowShown="0" headerRowDxfId="94" headerRowBorderDxfId="93" tableBorderDxfId="92" totalsRowBorderDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A5620E53-AB9B-4A34-B1EA-F30E2D8A71A6}" name="Tabela2" displayName="Tabela2" ref="E2:F14" totalsRowShown="0" headerRowDxfId="96" headerRowBorderDxfId="95" tableBorderDxfId="94" totalsRowBorderDxfId="93">
   <autoFilter ref="E2:F14" xr:uid="{A5620E53-AB9B-4A34-B1EA-F30E2D8A71A6}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{32C4F959-F343-44AB-8A6F-446892ACE2A9}" name="Year" dataDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{D48D4BF2-C60F-45D1-9BBB-ED95B8D370A9}" name="Avg CN Score" dataDxfId="89"/>
+    <tableColumn id="1" xr3:uid="{32C4F959-F343-44AB-8A6F-446892ACE2A9}" name="Year" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{D48D4BF2-C60F-45D1-9BBB-ED95B8D370A9}" name="Avg CN Score" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C6743611-25BC-4476-83D2-8BFAD81A91BD}" name="Tabela3" displayName="Tabela3" ref="H2:I14" totalsRowShown="0" headerRowDxfId="88" headerRowBorderDxfId="87" tableBorderDxfId="86" totalsRowBorderDxfId="85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C6743611-25BC-4476-83D2-8BFAD81A91BD}" name="Tabela3" displayName="Tabela3" ref="H2:I14" totalsRowShown="0" headerRowDxfId="90" headerRowBorderDxfId="89" tableBorderDxfId="88" totalsRowBorderDxfId="87">
   <autoFilter ref="H2:I14" xr:uid="{C6743611-25BC-4476-83D2-8BFAD81A91BD}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B67B0851-BFA5-43A3-8DFB-9D5C4FADA5D4}" name="Year" dataDxfId="84"/>
-    <tableColumn id="2" xr3:uid="{0DEF8A77-7C37-42C8-9041-F1ACE3BF278C}" name="Avg CH Score" dataDxfId="83"/>
+    <tableColumn id="1" xr3:uid="{B67B0851-BFA5-43A3-8DFB-9D5C4FADA5D4}" name="Year" dataDxfId="86"/>
+    <tableColumn id="2" xr3:uid="{0DEF8A77-7C37-42C8-9041-F1ACE3BF278C}" name="Avg CH Score" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{97CB747A-7C72-46C6-9B75-2EE39B24B92A}" name="Tabela4" displayName="Tabela4" ref="K2:L14" totalsRowShown="0" headerRowDxfId="82" headerRowBorderDxfId="81" tableBorderDxfId="80" totalsRowBorderDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{97CB747A-7C72-46C6-9B75-2EE39B24B92A}" name="Tabela4" displayName="Tabela4" ref="K2:L14" totalsRowShown="0" headerRowDxfId="84" headerRowBorderDxfId="83" tableBorderDxfId="82" totalsRowBorderDxfId="81">
   <autoFilter ref="K2:L14" xr:uid="{97CB747A-7C72-46C6-9B75-2EE39B24B92A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1732529B-B439-4F9F-A56F-7634F60F32D3}" name="Year" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{C6138065-EA17-4BAE-BAC2-859883CF05A1}" name="Avg LC Score" dataDxfId="77"/>
+    <tableColumn id="1" xr3:uid="{1732529B-B439-4F9F-A56F-7634F60F32D3}" name="Year" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{C6138065-EA17-4BAE-BAC2-859883CF05A1}" name="Avg LC Score" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AE36551E-F07E-42E9-820B-3FFDC6427541}" name="Tabela5" displayName="Tabela5" ref="N2:O14" totalsRowShown="0" headerRowDxfId="76" headerRowBorderDxfId="75" tableBorderDxfId="74" totalsRowBorderDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AE36551E-F07E-42E9-820B-3FFDC6427541}" name="Tabela5" displayName="Tabela5" ref="N2:O14" totalsRowShown="0" headerRowDxfId="78" headerRowBorderDxfId="77" tableBorderDxfId="76" totalsRowBorderDxfId="75">
   <autoFilter ref="N2:O14" xr:uid="{AE36551E-F07E-42E9-820B-3FFDC6427541}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{55DA8F28-4D0A-45D9-828F-B962E7DA2DDB}" name="Year" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{73F68621-A473-46A1-A1FA-B2CA8559FB14}" name="Avg MT Score" dataDxfId="71"/>
+    <tableColumn id="1" xr3:uid="{55DA8F28-4D0A-45D9-828F-B962E7DA2DDB}" name="Year" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{73F68621-A473-46A1-A1FA-B2CA8559FB14}" name="Avg MT Score" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E455BECE-8677-445B-9B8B-AF178FCBA86E}" name="Tabela6" displayName="Tabela6" ref="Q2:R14" totalsRowShown="0" headerRowDxfId="70" headerRowBorderDxfId="69" tableBorderDxfId="68" totalsRowBorderDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E455BECE-8677-445B-9B8B-AF178FCBA86E}" name="Tabela6" displayName="Tabela6" ref="Q2:R15" totalsRowCount="1" headerRowDxfId="72" headerRowBorderDxfId="71" tableBorderDxfId="70" totalsRowBorderDxfId="69">
   <autoFilter ref="Q2:R14" xr:uid="{E455BECE-8677-445B-9B8B-AF178FCBA86E}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{853A9604-9C39-4E01-B53D-137AB2C325C2}" name="Year" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{041F0D92-FBC9-49AC-A7C4-BE4D602782E7}" name="Avg RED Score" dataDxfId="65"/>
+    <tableColumn id="1" xr3:uid="{853A9604-9C39-4E01-B53D-137AB2C325C2}" name="Year" dataDxfId="68" totalsRowDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{041F0D92-FBC9-49AC-A7C4-BE4D602782E7}" name="Avg RED Score" dataDxfId="67" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E52E95B2-89A8-499C-9BFF-A2F9F02594B1}" name="Tabela7" displayName="Tabela7" ref="L18:P30" totalsRowShown="0" headerRowBorderDxfId="64" tableBorderDxfId="63" totalsRowBorderDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E52E95B2-89A8-499C-9BFF-A2F9F02594B1}" name="Tabela7" displayName="Tabela7" ref="L18:P30" totalsRowShown="0" headerRowBorderDxfId="66" tableBorderDxfId="65" totalsRowBorderDxfId="64">
   <autoFilter ref="L18:P30" xr:uid="{E52E95B2-89A8-499C-9BFF-A2F9F02594B1}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{83E6667F-ED47-4238-AF7D-2B84AFD289E0}" name="Year" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{2ABE2D2D-21CF-4D89-9257-A74B81051EE7}" name="M" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{139AF031-1FE0-4F33-8611-BC7115319905}" name=" F" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{EE7AF80A-8A41-4181-9525-5C2704F3E1F8}" name="Mas" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{DE50B068-8A48-4335-BE2C-14CCC5FBCA0A}" name="Fem" dataDxfId="57"/>
+    <tableColumn id="1" xr3:uid="{83E6667F-ED47-4238-AF7D-2B84AFD289E0}" name="Year" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{2ABE2D2D-21CF-4D89-9257-A74B81051EE7}" name="M" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{139AF031-1FE0-4F33-8611-BC7115319905}" name=" F" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{EE7AF80A-8A41-4181-9525-5C2704F3E1F8}" name="Mas" dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{DE50B068-8A48-4335-BE2C-14CCC5FBCA0A}" name="Fem" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{1C030628-ED31-408F-A1BF-2B7321D5770C}" name="Tabela8" displayName="Tabela8" ref="D18:J30" totalsRowShown="0" headerRowBorderDxfId="56" tableBorderDxfId="55" totalsRowBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{1C030628-ED31-408F-A1BF-2B7321D5770C}" name="Tabela8" displayName="Tabela8" ref="D18:J30" totalsRowShown="0" headerRowBorderDxfId="58" tableBorderDxfId="57" totalsRowBorderDxfId="56">
   <autoFilter ref="D18:J30" xr:uid="{1C030628-ED31-408F-A1BF-2B7321D5770C}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E1A4927B-5474-4500-ADB1-2D43149BEB0A}" name="Year" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{E9215E70-10A1-4212-B5E5-15077CE8D198}" name="Avg Total Score" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{22D3EDA1-6DAE-4D28-905E-C971A3979D0B}" name="Avg RED" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{38F59F0A-2C84-4461-A4EE-85C210709656}" name="Good knowledge Pt" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{CCA99978-2CC1-4F54-9131-0D5B7D54EF4C}" name="(%)" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{4A61FB4D-58CC-4A65-9A25-EF50B8C41F3E}" name="Medicine approved" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{A1CF66FA-BE9C-45CC-995D-5AF4C4AF1178}" name="Coluna1" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{E1A4927B-5474-4500-ADB1-2D43149BEB0A}" name="Year" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{E9215E70-10A1-4212-B5E5-15077CE8D198}" name="Avg Total Score" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{22D3EDA1-6DAE-4D28-905E-C971A3979D0B}" name="Avg RED" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{38F59F0A-2C84-4461-A4EE-85C210709656}" name="Good knowledge Pt" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{CCA99978-2CC1-4F54-9131-0D5B7D54EF4C}" name="(%)" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{4A61FB4D-58CC-4A65-9A25-EF50B8C41F3E}" name="Medicine approved" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{A1CF66FA-BE9C-45CC-995D-5AF4C4AF1178}" name="Coluna1" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C329F0A5-DD8D-4456-8D3C-14D51D23754B}" name="Tabela9" displayName="Tabela9" ref="R17:S29" totalsRowShown="0" headerRowBorderDxfId="46" tableBorderDxfId="45" totalsRowBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C329F0A5-DD8D-4456-8D3C-14D51D23754B}" name="Tabela9" displayName="Tabela9" ref="R17:S29" totalsRowShown="0" headerRowBorderDxfId="48" tableBorderDxfId="47" totalsRowBorderDxfId="46">
   <autoFilter ref="R17:S29" xr:uid="{C329F0A5-DD8D-4456-8D3C-14D51D23754B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1264B575-48FD-4562-9AF9-B79FFE5E7EFD}" name="Year" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{E8D90CA0-1971-448D-88A8-53B5B79125B9}" name="How many knows basic portuguese? (%)" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{1264B575-48FD-4562-9AF9-B79FFE5E7EFD}" name="Year" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{E8D90CA0-1971-448D-88A8-53B5B79125B9}" name="How many knows basic portuguese? (%)" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -43329,8 +43354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281CD64E-2B3C-44A0-988F-6A42929256DD}">
   <dimension ref="B2:W108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F27" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView tabSelected="1" topLeftCell="W39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -43454,13 +43479,13 @@
         <v>483.33</v>
       </c>
       <c r="U3" s="3">
-        <v>527.64</v>
+        <v>533.13</v>
       </c>
       <c r="V3" s="3">
-        <v>509.74</v>
+        <v>510.31</v>
       </c>
       <c r="W3" s="3">
-        <v>506.85</v>
+        <v>504.07</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.35">
@@ -43946,6 +43971,10 @@
         <f xml:space="preserve"> '2021'!$L$3</f>
         <v>613.5</v>
       </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="Q15" s="18"/>
+      <c r="R15" s="19"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.35">
       <c r="M16" s="45" t="s">
